--- a/data/census/Reapportionment for 2010 Census.xlsx
+++ b/data/census/Reapportionment for 2010 Census.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/census/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6899176D-69D8-004B-851F-0DEDF7A99291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFDD44A-DEFE-D043-AE9C-7329F139046E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13520" yWindow="8400" windowWidth="27640" windowHeight="16940" xr2:uid="{05EEF8F0-0C56-9843-A163-51BC41C064B9}"/>
+    <workbookView xWindow="22620" yWindow="8920" windowWidth="27640" windowHeight="16940" xr2:uid="{05EEF8F0-0C56-9843-A163-51BC41C064B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$51</definedName>
     <definedName name="Congressional_Elections__2012___113th" localSheetId="0">Sheet1!$A$1:$C$51</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -744,14 +745,14 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1316,6 +1317,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C51" xr:uid="{CA8B497F-7743-8941-9A9C-7FD89F3B6D24}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>